--- a/new_data/first analysis/Analysis.xlsx
+++ b/new_data/first analysis/Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\SEW-data-analysis\new_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\SEW-data-analysis\new_data\first analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9BE144-11E6-4F9B-86B9-6BCFD0CE2216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9467DAED-7C82-4BA0-AD46-3D7F5ECC51AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1950" windowWidth="16440" windowHeight="28320" tabRatio="865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIGNE DE MONTAGE MOTG01" sheetId="1" r:id="rId1"/>
@@ -914,21 +914,21 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -942,7 +942,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -956,7 +956,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -970,7 +970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -984,7 +984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -998,7 +998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1572,11 +1572,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="3">
         <v>45139</v>
       </c>
@@ -1606,15 +1606,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>108</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>108</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>108</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>108</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>108</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>108</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>108</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>108</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>108</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>108</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>108</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>108</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>108</v>
       </c>
@@ -2137,15 +2137,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.44140625" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>110</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>110</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>110</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>110</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>110</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>110</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>110</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>110</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>110</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>110</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>110</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>110</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>110</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -2780,15 +2780,15 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>111</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>111</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>111</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>111</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>111</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>111</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>111</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>111</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>111</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>111</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>111</v>
       </c>
@@ -3115,15 +3115,15 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
+    <col min="3" max="3" width="46.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>113</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>113</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -3267,15 +3267,15 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -3793,7 +3793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>71</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -3966,15 +3966,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>84</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>84</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>84</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>84</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>84</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>84</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>84</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>84</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>84</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>84</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>84</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -4777,15 +4777,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -5065,7 +5065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>92</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>92</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>92</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -5499,7 +5499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -5546,15 +5546,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="52.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>97</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>97</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>97</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>97</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>97</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -6119,15 +6119,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>101</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>101</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -6281,7 +6281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>101</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -6365,7 +6365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>101</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>101</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -6477,7 +6477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>101</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>101</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -6603,7 +6603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>101</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>101</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>101</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -6734,15 +6734,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="46.109375" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>102</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>102</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>102</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>102</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>102</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>102</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -7377,15 +7377,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="49.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="49.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>104</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>104</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>104</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>104</v>
       </c>
@@ -7707,7 +7707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>104</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>104</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -7819,7 +7819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>104</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>104</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>104</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>104</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>104</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>104</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>104</v>
       </c>
@@ -7992,15 +7992,15 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -8210,7 +8210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>106</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>106</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>106</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>106</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>106</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>106</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>106</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>106</v>
       </c>
